--- a/Tom/Documents/Copy of Copy of KBS-M1_Tijdschrijfformulier_Tom_Coupe1.xlsx
+++ b/Tom/Documents/Copy of Copy of KBS-M1_Tijdschrijfformulier_Tom_Coupe1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3314e056e8e1007d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KBS\Tom\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{61C56CA9-2686-40E0-A703-868E680B357E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{5636B0D0-2BEF-4E87-AF96-D8748CAE58CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C2A32E-B491-485B-9A88-BAC85947C3F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -148,6 +149,60 @@
   </si>
   <si>
     <t>Voorbereidin KBS demo</t>
+  </si>
+  <si>
+    <t>Begin review coderen</t>
+  </si>
+  <si>
+    <t>Afronden review coderen</t>
+  </si>
+  <si>
+    <t>Begin verlanglijstje</t>
+  </si>
+  <si>
+    <t>Afmaken verlanglijstje</t>
+  </si>
+  <si>
+    <t>Plan opzetten database gebruik</t>
+  </si>
+  <si>
+    <t>Thuis documentatie beginnen</t>
+  </si>
+  <si>
+    <t>Verder documentatie functionaliteit</t>
+  </si>
+  <si>
+    <t>Documentatie</t>
+  </si>
+  <si>
+    <t>Buf fixes</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Pakketselectie 1</t>
+  </si>
+  <si>
+    <t>Pakketselectie 2</t>
+  </si>
+  <si>
+    <t>Webprogrammeren bijles</t>
+  </si>
+  <si>
+    <t>Documentatie testplan</t>
+  </si>
+  <si>
+    <t>Documentatie code</t>
+  </si>
+  <si>
+    <t>Bijles SQL</t>
+  </si>
+  <si>
+    <t>Groepsopdracht pakketselectie beginnen en documentatie</t>
+  </si>
+  <si>
+    <t>Afronden Pakketselectie opdracht</t>
   </si>
 </sst>
 </file>
@@ -224,7 +279,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -234,6 +289,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D56" totalsRowShown="0">
+  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -674,12 +730,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -793,12 +849,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -909,12 +965,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1025,12 +1081,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1141,12 +1197,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1242,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,12 +1314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1301,7 +1357,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>61</v>
+        <v>116.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1313,7 +1369,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>107</v>
+        <v>51.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1603,16 +1659,204 @@
         <v>240</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4">
+        <v>43429</v>
+      </c>
+      <c r="C39">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C40">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C42">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C43">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C44">
+        <v>180</v>
+      </c>
+    </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="7">
+        <v>43435</v>
+      </c>
+      <c r="C45" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="7">
+        <v>43436</v>
+      </c>
+      <c r="C46" s="2">
+        <v>240</v>
+      </c>
       <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4">
+        <v>43438</v>
+      </c>
+      <c r="C51">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4">
+        <v>43437</v>
+      </c>
+      <c r="C52">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>43439</v>
+      </c>
+      <c r="C53">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4">
+        <v>43439</v>
+      </c>
+      <c r="C54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4">
+        <v>43439</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4">
+        <v>43439</v>
+      </c>
+      <c r="C56">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1646,16 +1890,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008036A50752E2824D899ADB653A634107" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2de00fd1d47445d7b69804c94a655239">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fd18b65b941b90f0796ec8ea2bab88d" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1798,6 +2032,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>
@@ -1807,23 +2051,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F02D2AB-3A08-4775-83FF-70C9E461BFAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1840,4 +2067,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tom/Documents/Copy of Copy of KBS-M1_Tijdschrijfformulier_Tom_Coupe1.xlsx
+++ b/Tom/Documents/Copy of Copy of KBS-M1_Tijdschrijfformulier_Tom_Coupe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KBS\Tom\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C2A32E-B491-485B-9A88-BAC85947C3F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4AB41-D092-4462-B76A-65B066866243}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>Afronden Pakketselectie opdracht</t>
+  </si>
+  <si>
+    <t>Afronden website demo</t>
+  </si>
+  <si>
+    <t>documentatie</t>
+  </si>
+  <si>
+    <t>documentate</t>
+  </si>
+  <si>
+    <t>Demo en voorbereiding demo</t>
+  </si>
+  <si>
+    <t>Pakketselectie college 4</t>
   </si>
 </sst>
 </file>
@@ -381,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D56" totalsRowShown="0">
-  <autoFilter ref="A9:D56" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D61" totalsRowShown="0">
+  <autoFilter ref="A9:D61" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
@@ -1298,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1357,7 +1372,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>116.5</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1369,7 +1384,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>51.5</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1856,6 +1871,61 @@
       </c>
       <c r="C56">
         <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="4">
+        <v>43440</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4">
+        <v>43442</v>
+      </c>
+      <c r="C58">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4">
+        <v>43443</v>
+      </c>
+      <c r="C59">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C61">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
